--- a/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test4/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_5/out_of_sample/additive/ranking_test4/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-6.929662649936287</v>
+        <v>-6.92966264995118</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.52231890813107</v>
+        <v>19.52231890819985</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>27.44589392948888</v>
+        <v>27.44589392947137</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.064424403872518</v>
+        <v>-3.064424403843869</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.59300421995761</v>
+        <v>14.59300421997535</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.94720662389375</v>
+        <v>20.94720662394798</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.130848067577748</v>
+        <v>8.1308480675707</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.10584638165267</v>
+        <v>23.10584638166359</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.87419231411446</v>
+        <v>28.87419231412696</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>27.55156189155946</v>
+        <v>27.55156189161494</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.85239116685648</v>
+        <v>35.85239116683272</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>40.44126883388742</v>
+        <v>40.44126883383183</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.518150152463594</v>
+        <v>6.518150152454272</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.69682638423365</v>
+        <v>28.69682638428776</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.96480302660916</v>
+        <v>36.96480302655596</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1.860141759316885</v>
+        <v>-1.860141759329846</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.59671860902654</v>
+        <v>24.59671860903666</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.52463842872294</v>
+        <v>32.52463842877228</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.999893328667444</v>
+        <v>1.99989332865869</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.66170364038237</v>
+        <v>19.66170364041523</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.02017660504044</v>
+        <v>26.0201766050659</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.20035530533574</v>
+        <v>13.2003553053329</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.1797461986655</v>
+        <v>28.17974619870052</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.848447516327386</v>
+        <v>1.848447516341597</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.30128896786744</v>
+        <v>28.30128896784959</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.22484879670549</v>
+        <v>36.22484879663682</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.715337808337271</v>
+        <v>5.715337808358644</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.3735685450672</v>
+        <v>23.37356854504299</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.7277249862334</v>
+        <v>29.72772498626466</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>16.91128209176145</v>
+        <v>16.91128209171336</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.88697235494886</v>
+        <v>31.88697235487917</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.65525189675873</v>
+        <v>37.65525189674895</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.33319796237788</v>
+        <v>36.33319796239141</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>44.63416946358063</v>
+        <v>44.63416946354789</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>49.22306391576376</v>
+        <v>49.22306391572567</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15.29888838708667</v>
+        <v>15.29888838706859</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>37.47858290238537</v>
+        <v>37.47858290234456</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.74644651616575</v>
+        <v>45.74644651609913</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6.920308726909983</v>
+        <v>6.920308726938178</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.37802909061406</v>
+        <v>33.37802909062509</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.30593381904521</v>
+        <v>41.30593381908284</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>10.78199603356621</v>
+        <v>10.78199603351016</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.44460854902025</v>
+        <v>28.44460854895397</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.8030356626673</v>
+        <v>34.80303566261091</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.96321295064945</v>
+        <v>36.96321295062944</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.196902490918664</v>
+        <v>5.196902490966071</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.65000848637499</v>
+        <v>31.65000848642967</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.57360323481464</v>
+        <v>39.57360323484943</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>9.064704813270854</v>
+        <v>9.064704813322013</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.72323893462078</v>
+        <v>26.72323893459179</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.0774345786034</v>
+        <v>33.07743457868901</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.26072337204778</v>
+        <v>20.26072337205153</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35.2366885762965</v>
+        <v>35.23668857625739</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>41.00499229286322</v>
+        <v>41.00499229286766</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>39.68296691219166</v>
+        <v>39.68296691217517</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>47.98396547986169</v>
+        <v>47.98396547986442</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.57292573420978</v>
+        <v>52.57292573423626</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>18.64838610528023</v>
+        <v>18.64838610523987</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>40.82848846871093</v>
+        <v>40.82848846862987</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49.09636880128312</v>
+        <v>49.09636880118944</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.26952032109648</v>
+        <v>10.26952032115003</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.72750524538469</v>
+        <v>36.72750524538844</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.65544490723789</v>
+        <v>44.65544490723266</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.13211973808052</v>
+        <v>14.13211973810633</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.79503565845892</v>
+        <v>31.79503565848859</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.15350199055752</v>
+        <v>38.15350199062436</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.33332802719281</v>
+        <v>25.33332802716314</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>40.31368592067417</v>
+        <v>40.31368592065473</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-2.266722174234811</v>
+        <v>-2.266722174235721</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.185834521473</v>
+        <v>24.18583452151404</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>32.10955547755691</v>
+        <v>32.10955547758533</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.600172776974322</v>
+        <v>1.600172776972276</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>19.25821542245285</v>
+        <v>19.25821542243068</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.61256938785141</v>
+        <v>25.6125693878729</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>12.79549725470497</v>
+        <v>12.79549725464426</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>27.77105440150172</v>
+        <v>27.7710544014517</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>33.5395198409625</v>
+        <v>33.53951984089042</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.21681409099722</v>
+        <v>32.21681409091354</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>40.51772869408103</v>
+        <v>40.51772869407193</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>45.10679407636746</v>
+        <v>45.10679407627924</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>11.18286025754754</v>
+        <v>11.18286025753514</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.36237126398908</v>
+        <v>33.36237126389881</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.63048053244495</v>
+        <v>41.63048053241664</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2.803911684133826</v>
+        <v>2.803911684187486</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.26134723542748</v>
+        <v>29.26134723542851</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>37.18941302916744</v>
+        <v>37.18941302916278</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.665603571531168</v>
+        <v>6.665603571502178</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.32802795745079</v>
+        <v>24.32802795744954</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.68665252278959</v>
+        <v>30.68665252278049</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>17.86611760589699</v>
+        <v>17.86611760589006</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.84606738483194</v>
+        <v>32.84606738485979</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.95194960598508</v>
+        <v>33.95194960596405</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.62958199613138</v>
+        <v>32.62958199611182</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.9342531837076</v>
+        <v>40.93425318366963</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.52571530167415</v>
+        <v>45.52571530171349</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>11.59345754391223</v>
+        <v>11.59345754392666</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>33.78051332389475</v>
+        <v>33.7805133238561</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>42.05152629849351</v>
+        <v>42.05152629845816</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>8.133633377443633</v>
+        <v>8.133633377356208</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.59298415028729</v>
+        <v>34.59298415028911</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.52113417307021</v>
+        <v>42.52113417309033</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>11.99794991020815</v>
+        <v>11.99794991019974</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.66253933345638</v>
+        <v>29.66253933348719</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.02109956568961</v>
+        <v>36.02109956571223</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>23.20102585305745</v>
+        <v>23.20102585303437</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>38.18280240935371</v>
+        <v>38.18280240932188</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>43.95516562189732</v>
+        <v>43.95516562189675</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.63679108314193</v>
+        <v>42.63679108311771</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>50.94275295389991</v>
+        <v>50.94275295392129</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>55.5342165812782</v>
+        <v>55.53421658134312</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.59711111086995</v>
+        <v>21.59711111090281</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>43.78717377962869</v>
+        <v>43.78717377962585</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>52.05850741527638</v>
+        <v>52.05850741530344</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.73535006226132</v>
+        <v>42.73535006223938</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.41355881148695</v>
+        <v>41.41355881155528</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.71837221780618</v>
+        <v>49.71837221785529</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>54.30985115697888</v>
+        <v>54.30985115693511</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.37653646633794</v>
+        <v>20.3765364663434</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.56461068034525</v>
+        <v>42.56461068039425</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>50.83551071135162</v>
+        <v>50.83551071140698</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>16.91564904291011</v>
+        <v>16.91564904294615</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.37585982665519</v>
+        <v>43.37585982667872</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>51.3039947215309</v>
+        <v>51.30399472155636</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>20.78161800253008</v>
+        <v>20.78161800248438</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.4470096477072</v>
+        <v>38.44700964763626</v>
       </c>
     </row>
     <row r="127">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.98536602167474</v>
+        <v>31.98536602172476</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.96783462562166</v>
+        <v>46.96783462565384</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52.74013150826556</v>
+        <v>52.74013150833571</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.42233339040774</v>
+        <v>51.42233339041297</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.72843748862306</v>
+        <v>59.72843748863568</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>64.31991791920359</v>
+        <v>64.31991791926441</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30.3817554931253</v>
+        <v>30.3817554931851</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>52.57283659613643</v>
+        <v>52.57283659616598</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>60.84405726603711</v>
+        <v>60.84405726605303</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>46.08584721968066</v>
+        <v>46.08584721967884</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>44.76408441255103</v>
+        <v>44.76408441260014</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>53.0689248605496</v>
+        <v>53.06892486062065</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>57.66046961297661</v>
+        <v>57.66046961298628</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.72679086135838</v>
+        <v>23.72679086135645</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>45.91527294598131</v>
+        <v>45.9152729459563</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>20.26582786580821</v>
+        <v>20.26582786583515</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>46.72630321875124</v>
+        <v>46.72630321872032</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>54.65447302912162</v>
+        <v>54.65447302915993</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.13270900167641</v>
+        <v>24.1327090017436</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.79840405878895</v>
+        <v>41.79840405880896</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>48.15695760363985</v>
+        <v>48.15695760368885</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.33653136216731</v>
+        <v>35.33653136224746</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>50.31927493362468</v>
+        <v>50.31927493365197</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>56.09159598803501</v>
+        <v>56.09159598809219</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>54.77382632155616</v>
+        <v>54.77382632150886</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>63.0799574569761</v>
+        <v>63.079957456947</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>67.67150369256353</v>
+        <v>67.67150369257445</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.73297717708749</v>
+        <v>33.73297717710659</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>55.92446615161668</v>
+        <v>55.92446615156712</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>64.1957035456727</v>
+        <v>64.19570354559312</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>38.61839033239414</v>
+        <v>38.6183903323705</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>37.29594718196688</v>
+        <v>37.29594718199985</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>45.60070367043829</v>
+        <v>45.60070367037304</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>50.19235354130581</v>
+        <v>50.19235354127102</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>16.25928069098802</v>
+        <v>16.25928069100064</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.44717131886944</v>
+        <v>38.44717131889854</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>46.71831695914909</v>
+        <v>46.71831695913238</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.79955638809134</v>
+        <v>12.7995563881633</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.2594823781468</v>
+        <v>39.25948237818557</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>47.18777834507796</v>
+        <v>47.18777834513003</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.6655298526614</v>
+        <v>16.66552985264048</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>34.33073338282179</v>
+        <v>34.33073338283089</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>40.68944519257059</v>
+        <v>40.68944519259969</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.86865793875461</v>
+        <v>27.86865793884204</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.8509934108597</v>
+        <v>42.85099341093428</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>48.62347613855059</v>
+        <v>48.62347613856775</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>47.3050260931692</v>
+        <v>47.30502609318012</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.61107326227602</v>
+        <v>55.61107326226329</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>60.20272462735829</v>
+        <v>60.20272462737012</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.26480397046555</v>
+        <v>26.2648039703837</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>48.45570151196114</v>
+        <v>48.45570151192385</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.72716779526093</v>
+        <v>56.72716779517998</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>4.497180000615007</v>
+        <v>4.497180000656957</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>30.94942085673677</v>
+        <v>30.94942085678315</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.87213649205148</v>
+        <v>38.87213649206592</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>8.361844192435687</v>
+        <v>8.361844192418975</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.02012448862149</v>
+        <v>26.0201244886539</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.37344898599758</v>
+        <v>32.37344898607353</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.55829616609288</v>
+        <v>19.55829616609561</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.53411076046348</v>
+        <v>34.53411076049986</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>40.30171260237773</v>
+        <v>40.30171260236409</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>38.97912162492617</v>
+        <v>38.97912162498073</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>47.27973292213289</v>
+        <v>47.27973292217109</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>51.86796063047041</v>
+        <v>51.86796063050224</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.94477906874852</v>
+        <v>17.94477906874807</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>40.12389500108338</v>
+        <v>40.12389500102472</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>48.39094457229407</v>
+        <v>48.39094457226452</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>9.564521144476206</v>
+        <v>9.564521144506561</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.0216405344886</v>
+        <v>36.02164053453168</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>43.94870063641167</v>
+        <v>43.94870063647102</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>13.42398227365357</v>
+        <v>13.42398227364595</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.08664402154728</v>
+        <v>31.08664402155785</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37.44423873276344</v>
+        <v>37.44423873277049</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.62562365741974</v>
+        <v>24.62562365745987</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>39.60583056180315</v>
+        <v>39.60583056182872</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.27473190995761</v>
+        <v>13.27473190992101</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.72783262386292</v>
+        <v>39.72783262390101</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>47.65053305840377</v>
+        <v>47.65053305845277</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>17.14104806001695</v>
+        <v>17.14104806004218</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>34.80013043679708</v>
+        <v>34.80013043683084</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>41.15340896613168</v>
+        <v>41.15340896617977</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.33817181408529</v>
+        <v>28.33817181411166</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>43.31467832778685</v>
+        <v>43.31467832778549</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>49.08221377700693</v>
+        <v>49.0822137770042</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.76019928814515</v>
+        <v>47.76019928814026</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.06095280651334</v>
+        <v>56.06095280650322</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>60.64919729354961</v>
+        <v>60.64919729359235</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.72495892369239</v>
+        <v>26.72495892377936</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.90509309897868</v>
+        <v>48.90509309896015</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>57.17202963914269</v>
+        <v>57.17202963914769</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>18.34441323750241</v>
+        <v>18.3444132375671</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.80239258711788</v>
+        <v>44.80239258715721</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>52.72943758927875</v>
+        <v>52.72943758932888</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.20552649786407</v>
+        <v>22.20552649789204</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.86899041724303</v>
+        <v>39.86899041726838</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.22653927197405</v>
+        <v>46.22653927203123</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.40783985799987</v>
+        <v>33.40783985801113</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.38873877176388</v>
+        <v>48.38873877176036</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.62286158720554</v>
+        <v>16.6228615872268</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>43.07622682485828</v>
+        <v>43.07622682488818</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>50.99896217459263</v>
+        <v>50.99896217465198</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.49008973513071</v>
+        <v>20.49008973513947</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.14947547447957</v>
+        <v>38.14947547445752</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>44.50279320335596</v>
+        <v>44.50279320331515</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.68728774340366</v>
+        <v>31.68728774344197</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>46.66406917694508</v>
+        <v>46.6640691770034</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>52.43162879865588</v>
+        <v>52.43162879867793</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>51.10964288716082</v>
+        <v>51.10964288721811</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.4104234703799</v>
+        <v>59.41042347044402</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>63.99873375429479</v>
+        <v>63.99873375439211</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.07413130351279</v>
+        <v>30.07413130360419</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>52.25467330356014</v>
+        <v>52.25467330359197</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>60.52162655747054</v>
+        <v>60.52162655754148</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.69329951629436</v>
+        <v>21.69329951631835</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>48.15154340620563</v>
+        <v>48.1515434062469</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>56.07862333752985</v>
+        <v>56.078623337571</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.55532485415961</v>
+        <v>25.55532485418246</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>43.21909215633718</v>
+        <v>43.21909215634548</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>49.57668022652695</v>
+        <v>49.57668022658538</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.75771249786874</v>
+        <v>36.75771249787078</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>51.73888635149615</v>
+        <v>51.73888635148944</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>9.159634872693236</v>
+        <v>9.159634872684254</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>35.61245083055292</v>
+        <v>35.61245083055826</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>43.53531238718972</v>
+        <v>43.53531238719495</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.02595571277437</v>
+        <v>13.02595571271207</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.68484999483815</v>
+        <v>30.68484999486794</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>37.03832604082902</v>
+        <v>37.03832604085062</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.22245966315154</v>
+        <v>24.22245966316087</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>39.19883305500525</v>
+        <v>39.19883305506562</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>44.96655439378708</v>
+        <v>44.96655439382016</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.64388814348195</v>
+        <v>43.64388814349377</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>51.94458476420141</v>
+        <v>51.94458476428736</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.53300017241929</v>
+        <v>56.53300017247022</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.60900350670954</v>
+        <v>22.60900350674115</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>44.78895417276885</v>
+        <v>44.788954172785</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>53.05613635329098</v>
+        <v>53.05613635329439</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>14.22808896919185</v>
+        <v>14.22808896923971</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>40.68578350582857</v>
+        <v>40.6857835057931</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>48.612989568275</v>
+        <v>48.61298956822941</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>18.08920684032353</v>
+        <v>18.08920684034172</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.75248262677519</v>
+        <v>35.75248262677439</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>42.1102289260723</v>
+        <v>42.1102289260856</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.29090025315736</v>
+        <v>29.29090025319045</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>44.27166600812313</v>
+        <v>44.27166600817418</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>45.37728958420121</v>
+        <v>45.37728958423759</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>44.05496173085407</v>
+        <v>44.05496173092411</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>52.3594146805226</v>
+        <v>52.35941468051169</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>56.95022669437174</v>
+        <v>56.95022669441903</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>23.01790699732135</v>
+        <v>23.01790699731419</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>45.20540202255529</v>
+        <v>45.2054020226044</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>53.47548773184894</v>
+        <v>53.47548773188703</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.55881731436762</v>
+        <v>19.55881731429145</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>46.01842705089405</v>
+        <v>46.01842705085437</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>53.94571731123688</v>
+        <v>53.94571731124813</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.42255950938</v>
+        <v>23.42255950930155</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>41.08800029878194</v>
+        <v>41.08800029873362</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>47.44568225465491</v>
+        <v>47.44568225467572</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.62681488848034</v>
+        <v>34.62681488858959</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>49.60940740360377</v>
+        <v>49.60940740361104</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>55.38102621222856</v>
+        <v>55.38102621222845</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>54.06269105608555</v>
+        <v>54.06269105604554</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>62.36843462480135</v>
+        <v>62.36843462483046</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>66.9592481535966</v>
+        <v>66.95924815358205</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>33.02208088496263</v>
+        <v>33.02208088501061</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>55.21258276131414</v>
+        <v>55.21258276127412</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>63.48298906520927</v>
+        <v>63.48298906520517</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.1601314964546</v>
+        <v>54.16013149642731</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>52.83838000270032</v>
+        <v>52.83838000274761</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.14297516609804</v>
+        <v>61.1429751660944</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.73380399446364</v>
+        <v>65.73380399445637</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.80042740377428</v>
+        <v>31.80042740376337</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>53.98894082250251</v>
+        <v>53.98894082251707</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>62.25891358553724</v>
+        <v>62.25891358556271</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.34027450223767</v>
+        <v>28.3402745022429</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.8007442139899</v>
+        <v>54.80074421397933</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>62.72801933789185</v>
+        <v>62.728019337879</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.20566903663087</v>
+        <v>32.20566903664758</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.87191201559563</v>
+        <v>49.87191201562177</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>56.22954807543556</v>
+        <v>56.22954807542453</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.41059646041447</v>
+        <v>43.41059646040196</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>58.39388099367079</v>
+        <v>58.39388099366352</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>64.16543347013999</v>
+        <v>64.1654334701534</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62.84767473575164</v>
+        <v>62.84767473578256</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>71.15356052705795</v>
+        <v>71.15356052702884</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>75.74439085225856</v>
+        <v>75.74439085227311</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>41.80616666693174</v>
+        <v>41.80616666695857</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>63.99768693689509</v>
+        <v>63.99768693693488</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>72.26798027224311</v>
+        <v>72.26798027222924</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>57.51030326132627</v>
+        <v>57.51030326131547</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.1885802346485</v>
+        <v>56.18858023465782</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.49320243829504</v>
+        <v>64.49320243839361</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>69.08409707478768</v>
+        <v>69.08409707483577</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>35.15035644177487</v>
+        <v>35.15035644177863</v>
       </c>
     </row>
     <row r="321">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>65.60926720137002</v>
+        <v>65.60926720137809</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.69012795719926</v>
+        <v>31.69012795722847</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>58.15086221763181</v>
+        <v>58.15086221761817</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>66.07817225312783</v>
+        <v>66.07817225306724</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.55643463534159</v>
+        <v>35.55643463532692</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>53.22298100414912</v>
+        <v>53.22298100415787</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>59.58065626425002</v>
+        <v>59.58065626423502</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>46.76143637917994</v>
+        <v>46.76143637913287</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>61.744995858891</v>
+        <v>61.74499585888702</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>67.51657250482208</v>
+        <v>67.51657250485084</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>66.1988422450695</v>
+        <v>66.19884224506973</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>74.50475507209842</v>
+        <v>74.50475507212946</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>79.09565119715262</v>
+        <v>79.09565119725551</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>45.15706294182871</v>
+        <v>45.15706294188521</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>67.3489910599144</v>
+        <v>67.34899105996715</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>75.61930111470224</v>
+        <v>75.61930111470394</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.04324456073732</v>
+        <v>50.04324456079371</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>48.72084122056867</v>
+        <v>48.72084122062893</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>57.02537946668144</v>
+        <v>57.02537946669111</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>61.61637921826298</v>
+        <v>61.61637921833267</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.68324446132113</v>
+        <v>27.68324446132124</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>49.87157429388935</v>
+        <v>49.87157429388844</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>58.14179265197163</v>
+        <v>58.14179265197151</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.22425461013041</v>
+        <v>24.22425461009437</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.68443952741688</v>
+        <v>50.68443952740631</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>58.61187571865412</v>
+        <v>58.6118757186689</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.08965368018028</v>
+        <v>28.08965368025213</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.75570854058913</v>
+        <v>45.75570854060004</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>52.11354206123644</v>
+        <v>52.11354206122917</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.29396117352246</v>
+        <v>39.29396117351894</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>54.27711256941723</v>
+        <v>54.27711256942996</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>60.04885088297544</v>
+        <v>60.04885088302626</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>58.73044027403546</v>
+        <v>58.73044027403751</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>67.03626913695621</v>
+        <v>67.03626913694927</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>71.62727038798971</v>
+        <v>71.62727038806827</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>37.68928796588739</v>
+        <v>37.68928796592559</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.88062467433281</v>
+        <v>59.88062467432644</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>68.15116360892262</v>
+        <v>68.1511636089499</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-10.87525340533136</v>
+        <v>-10.87525340528066</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.57633735110199</v>
+        <v>15.57633735111472</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.49998509690966</v>
+        <v>23.49998509689158</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-7.010586013551457</v>
+        <v>-7.010586013580674</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>10.64640644680424</v>
+        <v>10.64640644683141</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.00066127238461</v>
+        <v>17.00066127243634</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>4.18456462532686</v>
+        <v>4.184564625363127</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>19.15915172290227</v>
+        <v>19.15915172288772</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.92755137547079</v>
+        <v>24.92755137545635</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>23.60502483132007</v>
+        <v>23.60502483130165</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.90565573113236</v>
+        <v>31.90565573112838</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.49456300260067</v>
+        <v>36.49456300259578</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2.57201122487152</v>
+        <v>2.572011224899487</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.75021520096709</v>
+        <v>24.75021520096118</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.01820474935937</v>
+        <v>33.01820474935846</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-5.808762350654543</v>
+        <v>-5.808762350680009</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.64770716413262</v>
+        <v>20.64770716412227</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.57569980886774</v>
+        <v>28.57569980884785</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.949298172292171</v>
+        <v>-1.949298172309906</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>15.71207592294229</v>
+        <v>15.71207592287454</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.07060141365867</v>
+        <v>22.07060141363729</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.251041836221024</v>
+        <v>9.251041836233757</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.23002146756869</v>
+        <v>24.23002146752731</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-2.097165089542383</v>
+        <v>-2.097165089533288</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.35528555979863</v>
+        <v>24.35528555981694</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>32.2789181178415</v>
+        <v>32.27891811778795</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1.769154358000382</v>
+        <v>1.769154357966276</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>19.42694893020394</v>
+        <v>19.42694893018131</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.78115779748794</v>
+        <v>25.78115779749874</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>12.96497680811422</v>
+        <v>12.96497680811604</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.94025585305258</v>
+        <v>27.9402558530511</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>33.7085891199057</v>
+        <v>33.7085891199265</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.38663906621093</v>
+        <v>32.38663906624606</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>40.68741219401852</v>
+        <v>40.68741219404262</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.27633625408578</v>
+        <v>45.27633625410886</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>11.35272762576483</v>
+        <v>11.35272762581656</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.53194988605571</v>
+        <v>33.53194988607015</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>41.79982640948811</v>
+        <v>41.7998264094997</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2.971666298887957</v>
+        <v>2.971666298800191</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.4289958085991</v>
+        <v>29.42899580856863</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>37.35697336628562</v>
+        <v>37.35697336622877</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>6.832782705465778</v>
+        <v>6.832782705459525</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.49495900302407</v>
+        <v>24.49495900297143</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>30.85343864749609</v>
+        <v>30.85343864750905</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>18.03379472165034</v>
+        <v>18.03379472161464</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.01346639025155</v>
+        <v>33.01346639031055</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.251264818676081</v>
+        <v>1.251264818637654</v>
       </c>
     </row>
     <row r="407">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>35.62764749330381</v>
+        <v>35.6276474933494</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>5.118496303643614</v>
+        <v>5.118496303631677</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.77659426111279</v>
+        <v>22.77659426112007</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.13084233437565</v>
+        <v>29.13084233438122</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>16.31439302698266</v>
+        <v>16.31439302696447</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.28994701375052</v>
+        <v>31.28994701375098</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.0583044579663</v>
+        <v>37.05830445795721</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.73638295921285</v>
+        <v>35.73638295915248</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.03718315454898</v>
+        <v>44.03718315451761</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.62617301832097</v>
+        <v>48.6261730183295</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>14.70220028544486</v>
+        <v>14.7022002854942</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.88183039572834</v>
+        <v>36.88183039577189</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>45.14972364092773</v>
+        <v>45.14972364096923</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.320852852145098</v>
+        <v>6.320852852158968</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>32.77844692343547</v>
+        <v>32.7784469234133</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>40.70645941774751</v>
+        <v>40.70645941770078</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>10.1828813764729</v>
+        <v>10.18288137649859</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.84536107966096</v>
+        <v>27.84536107968984</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.20387994565499</v>
+        <v>34.20387994574935</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>21.38396769480426</v>
+        <v>21.38396769483063</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.3639143253871</v>
+        <v>36.36391432543667</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-6.212402423617387</v>
+        <v>-6.212402423618069</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>20.23976346964924</v>
+        <v>20.23976346964844</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.1635571568753</v>
+        <v>28.16355715684825</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-2.346078319330214</v>
+        <v>-2.346078319339423</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.31152816175655</v>
+        <v>15.31152816171334</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>21.66593455522628</v>
+        <v>21.6659345551791</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.849124320675291</v>
+        <v>8.849124320684385</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.82427025015193</v>
+        <v>23.8242702501301</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.59278941536639</v>
+        <v>29.59278941532273</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.27018754546066</v>
+        <v>28.27018754539973</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.57090377398606</v>
+        <v>36.57090377395241</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.15999876361184</v>
+        <v>41.15999876358728</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>7.23663184430632</v>
+        <v>7.236631844238222</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.41567059554609</v>
+        <v>29.41567059555974</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>37.68379277669578</v>
+        <v>37.68379277665565</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-1.144798369698602</v>
+        <v>-1.144798369725773</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.31224632713475</v>
+        <v>25.31224632711451</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.24038495248078</v>
+        <v>33.24038495246464</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2.716322615037374</v>
+        <v>2.716322615030439</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>20.37831078365537</v>
+        <v>20.37831078365923</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.73698788178399</v>
+        <v>26.73698788178979</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.91671467689082</v>
+        <v>13.91671467690901</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.89625319311404</v>
+        <v>28.89625319313132</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>30.00227870370555</v>
+        <v>30.0022787037351</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.68001506972655</v>
+        <v>28.68001506973042</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.98448788075598</v>
+        <v>36.98448788071153</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>41.57597964926083</v>
+        <v>41.57597964929369</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.644288866479545</v>
+        <v>7.644288866472269</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.8308723389971</v>
+        <v>29.83087233900483</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>38.10189831611001</v>
+        <v>38.10189831611774</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>4.186912691153569</v>
+        <v>4.18691269114095</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.64587269348545</v>
+        <v>30.64587269348465</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>38.57409549974693</v>
+        <v>38.57409549977262</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8.050658375124161</v>
+        <v>8.050658375114953</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.71481166741012</v>
+        <v>25.71481166740285</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.07342438510477</v>
+        <v>32.07342438507578</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.25361247873582</v>
+        <v>19.25361247873866</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>34.23497785210532</v>
+        <v>34.23497785202971</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.00739485261977</v>
+        <v>40.00739485257316</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>38.68912425908798</v>
+        <v>38.68912425913868</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>46.99488776205112</v>
+        <v>46.99488776204532</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.58638103809392</v>
+        <v>51.58638103807539</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>17.64984245557696</v>
+        <v>17.6498424555698</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.83943288773685</v>
+        <v>39.83943288774321</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>48.11077949176934</v>
+        <v>48.11077949169373</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>38.78565733566154</v>
+        <v>38.78565733567916</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.4639700629441</v>
+        <v>37.46397006298707</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.76858509453768</v>
+        <v>45.76858509454871</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>50.36009368763837</v>
+        <v>50.36009368764667</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>16.4273459685013</v>
+        <v>16.42734596845674</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.61494787554921</v>
+        <v>38.61494787553556</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.88586091241905</v>
+        <v>46.88586091243906</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>12.96890654617949</v>
+        <v>12.96890654621825</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>39.42872655878296</v>
+        <v>39.42872655879648</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>47.35693424141687</v>
+        <v>47.3569342414969</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>16.83430466699349</v>
+        <v>16.83430466695541</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>34.49926017966561</v>
+        <v>34.49926017965527</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>40.85782701103074</v>
+        <v>40.85782701103096</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.03793084620225</v>
+        <v>28.03793084618485</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>43.0199882658053</v>
+        <v>43.01998826578699</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>48.79233894127117</v>
+        <v>48.79233894121273</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>47.47464477097481</v>
+        <v>47.47464477103313</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>55.78055050333842</v>
+        <v>55.7805505033075</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>60.37206058586708</v>
+        <v>60.37206058585969</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.43446504412612</v>
+        <v>26.43446504408951</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>48.62507391105225</v>
+        <v>48.62507391107488</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>56.89630755264614</v>
+        <v>56.89630755267967</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>42.13612946083879</v>
+        <v>42.13612946085379</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>40.81447063278404</v>
+        <v>40.81447063280689</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>49.11911270739063</v>
+        <v>49.11911270750625</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>53.71068711515147</v>
+        <v>53.71068711521627</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.77757533077386</v>
+        <v>19.77757533071213</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.96558511029082</v>
+        <v>41.96558511028275</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>50.23651488591338</v>
+        <v>50.23651488578332</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>16.31906033324549</v>
+        <v>16.3190603332431</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.77914491592128</v>
+        <v>42.77914491586444</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>50.70738751735837</v>
+        <v>50.70738751732347</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>20.18537063734505</v>
+        <v>20.18537063738609</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.85062956263585</v>
+        <v>37.85062956260094</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>44.2092356009174</v>
+        <v>44.20923560099266</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>31.38907115573136</v>
+        <v>31.38907115577138</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>46.37140354342637</v>
+        <v>46.37140354345729</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>52.1437783933527</v>
+        <v>52.14377839332906</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>50.82611267534469</v>
+        <v>50.82611267538562</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>59.13204544626376</v>
+        <v>59.13204544630014</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>63.72362133536092</v>
+        <v>63.72362133534455</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.78566170007457</v>
+        <v>29.78566170007651</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>51.97667844050386</v>
+        <v>51.97667844046657</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>60.24792880936661</v>
+        <v>60.24792880933921</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.66862997531894</v>
+        <v>34.6686299753062</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.34629080175205</v>
+        <v>33.34629080177774</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>41.65084891433082</v>
+        <v>41.65084891435765</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.24252843886006</v>
+        <v>46.242528438926</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>12.31002255941349</v>
+        <v>12.31002255936892</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>34.49744088009288</v>
+        <v>34.49744088006287</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>42.76859952935808</v>
+        <v>42.76859952932534</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>8.852746257346215</v>
+        <v>8.852746257339849</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>35.31228147567481</v>
+        <v>35.31228147568902</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>43.24065023293429</v>
+        <v>43.24065023290393</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>12.71814888060783</v>
+        <v>12.71814888062056</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.38291627863385</v>
+        <v>30.38291627863032</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.74168058041403</v>
+        <v>36.74168058041141</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>23.92115512254691</v>
+        <v>23.92115512257965</v>
       </c>
     </row>
     <row r="532">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.35726983362213</v>
+        <v>43.35726983364395</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>51.66311863589283</v>
+        <v>51.6631186358419</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>56.25479965261081</v>
+        <v>56.25479965258171</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.31744587876563</v>
+        <v>22.31744587880394</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>44.50787118445635</v>
+        <v>44.50787118444225</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>52.77935044250819</v>
+        <v>52.77935044252763</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-11.15737716256035</v>
+        <v>-11.15737716257854</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>15.29264339658858</v>
+        <v>15.29264339666134</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.21572061389964</v>
+        <v>23.21572061387599</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-7.293232093485127</v>
+        <v>-7.293232093488879</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>10.36278035909186</v>
+        <v>10.36278035908697</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>16.71655291381672</v>
+        <v>16.71655291382001</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>3.901381208532602</v>
+        <v>3.901381208554316</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.87514404611284</v>
+        <v>18.8751440460718</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.64311337167942</v>
+        <v>24.64311337164964</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.3207647659998</v>
+        <v>23.32076476599957</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.62087283030394</v>
+        <v>31.62087283031383</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.20943135346181</v>
+        <v>36.20943135344987</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>2.288885102734756</v>
+        <v>2.288885102731573</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.4658000416174</v>
+        <v>24.46580004161718</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>32.73318043072561</v>
+        <v>32.73318043070719</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-6.089248820177882</v>
+        <v>-6.089248820142299</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>20.36565024052289</v>
+        <v>20.36565024054392</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.29307207865168</v>
+        <v>28.29307207865543</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-2.230306499889249</v>
+        <v>-2.230306499885611</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15.43008736795457</v>
+        <v>15.43008736799732</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>21.78813031114305</v>
+        <v>21.78813031117852</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.969495970825736</v>
+        <v>8.969495970847678</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.94765111193704</v>
+        <v>23.94765111194113</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2.37989354121714</v>
+        <v>-2.37989354124829</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.07098685569656</v>
+        <v>24.07098685565837</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.99404888581876</v>
+        <v>31.99404888581205</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>1.485903473946795</v>
+        <v>1.485903473922011</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>19.14271798679932</v>
+        <v>19.14271798680784</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.49644458708963</v>
+        <v>25.49644458708361</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>12.6811885434139</v>
+        <v>12.68118854337911</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>27.65564328368396</v>
+        <v>27.65564328362462</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>33.42354622853077</v>
+        <v>33.4235462284887</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.10177407983622</v>
+        <v>32.10177407980905</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.40202436240565</v>
+        <v>40.40202436240008</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>44.99059967376206</v>
+        <v>44.99059967376911</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>11.0689966390969</v>
+        <v>11.06899663908951</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.24692979777262</v>
+        <v>33.24692979772522</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>41.51419716946907</v>
+        <v>41.51419716943064</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>2.690575004238557</v>
+        <v>2.690575004231508</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.1463340050251</v>
+        <v>29.14633400503977</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>37.07374075696634</v>
+        <v>37.07374075695554</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.551169444404426</v>
+        <v>6.551169444294491</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.21236546302544</v>
+        <v>24.21236546303635</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.57036256363552</v>
+        <v>30.57036256360812</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.75164387820621</v>
+        <v>17.7516438781704</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.73049101214337</v>
+        <v>32.73049101215031</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>0.9682920849253414</v>
+        <v>0.9682920849326173</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>27.41943700857803</v>
+        <v>27.41943700855893</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>35.3425339596389</v>
+        <v>35.34253395960172</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.835001081210866</v>
+        <v>4.835001081201771</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.49211895830945</v>
+        <v>22.49211895836038</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.84588476318345</v>
+        <v>28.84588476320892</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.03036041599103</v>
+        <v>16.03036041598364</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>31.00509007890276</v>
+        <v>31.00509007885512</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.77301720061723</v>
+        <v>36.77301720057494</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>35.45127360694346</v>
+        <v>35.45127360687616</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>43.75155095538014</v>
+        <v>43.75155095535649</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>48.34019206622884</v>
+        <v>48.34019206625157</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>14.418224951914</v>
+        <v>14.41822495193731</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.59656593320574</v>
+        <v>36.5965659331905</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>44.86385002635313</v>
+        <v>44.86385002631846</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>6.039517225046328</v>
+        <v>6.039517225068497</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>32.49554076907918</v>
+        <v>32.495540769081</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>40.42298245585869</v>
+        <v>40.42298245588404</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.901023725914801</v>
+        <v>9.901023725873191</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.56252312937852</v>
+        <v>27.5625231294132</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.92055944999231</v>
+        <v>33.9205594500288</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.10157245402673</v>
+        <v>21.10157245399944</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.08069453103553</v>
+        <v>36.08069453101746</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>-6.49488629442089</v>
+        <v>-6.494886294379054</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.95570936188472</v>
+        <v>19.95570936192837</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>27.87893251231788</v>
+        <v>27.87893251227615</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-2.629084617428585</v>
+        <v>-2.629084617458712</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>15.02754181431783</v>
+        <v>15.02754181439059</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.3814659289053</v>
+        <v>21.38146592885164</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>8.565580676843869</v>
+        <v>8.565580676770882</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.53990230765556</v>
+        <v>23.5399023077373</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.30799114000502</v>
+        <v>29.30799114003583</v>
       </c>
     </row>
     <row r="618">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.28576060588625</v>
+        <v>36.28576060588807</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>40.87450683510167</v>
+        <v>40.87450683516352</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>6.953145497443646</v>
+        <v>6.953145497496852</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.13089515589354</v>
+        <v>29.13089515589923</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>37.39840816993319</v>
+        <v>37.39840816993524</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-1.425645019658983</v>
+        <v>-1.425645019701161</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.02982918362909</v>
+        <v>25.02982918357771</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.95739699410012</v>
+        <v>32.95739699410967</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>2.434954003032434</v>
+        <v>2.434954003034253</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>20.09596190261516</v>
+        <v>20.09596190263892</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.45415644508637</v>
+        <v>26.45415644506648</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>13.63480851774171</v>
+        <v>13.63480851774534</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.61352250525488</v>
+        <v>28.61352250529353</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.71947777542789</v>
+        <v>29.71947777544233</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.39739201726718</v>
+        <v>28.39739201727491</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.70134175437738</v>
+        <v>36.70134175433031</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>41.2924846136018</v>
+        <v>41.2924846135993</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>7.362799914982137</v>
+        <v>7.36279991492302</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.54809388108618</v>
+        <v>29.54809388106162</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>37.81851051625995</v>
+        <v>37.81851051621629</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3.905727287365952</v>
+        <v>3.905727287369817</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.36311668668668</v>
+        <v>30.36311668664155</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>38.2907686586766</v>
+        <v>38.29076865865329</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>7.768950781553034</v>
+        <v>7.76895078156554</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.43212368072023</v>
+        <v>25.43212368079981</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.79025383531178</v>
+        <v>31.79025383535361</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>18.97136719218554</v>
+        <v>18.97136719218736</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>33.95190793311178</v>
+        <v>33.95190793308814</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>39.72389434277773</v>
+        <v>39.72389434273225</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>38.40580135855578</v>
+        <v>38.40580135855612</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>46.71104170146555</v>
+        <v>46.71104170148863</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>51.30218606197354</v>
+        <v>51.30218606193466</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>17.36765387758362</v>
+        <v>17.36765387761159</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>39.55595462271697</v>
+        <v>39.55595462273459</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>47.82669185346037</v>
+        <v>47.82669185350983</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.50225138982114</v>
+        <v>38.50225138981364</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>37.18074195970019</v>
+        <v>37.1807419596613</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>45.48483390799493</v>
+        <v>45.48483390800789</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.07599359113624</v>
+        <v>50.07599359112692</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>16.14525202281778</v>
+        <v>16.14525202277776</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>38.3315643590978</v>
+        <v>38.33156435915055</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.60186806172817</v>
+        <v>46.60186806178911</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>12.68711621672174</v>
+        <v>12.68711621670161</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.14536557142685</v>
+        <v>39.14536557140184</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.07300242075621</v>
+        <v>47.07300242065082</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>16.55199203913935</v>
+        <v>16.55199203904352</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.21596710725998</v>
+        <v>34.21596710728784</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.57405137923286</v>
+        <v>40.57405137923354</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.75508048106883</v>
+        <v>27.75508048103962</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.73631322359608</v>
+        <v>42.73631322355595</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.50823331309505</v>
+        <v>48.50823331305844</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>47.19071671869312</v>
+        <v>47.19071671870051</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>55.49609928160783</v>
+        <v>55.49609928157781</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.08726044817524</v>
+        <v>60.08726044813693</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.15167137086485</v>
+        <v>26.1516713708985</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>48.34099048663813</v>
+        <v>48.34099048667258</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>56.61161476279597</v>
+        <v>56.61161476280677</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>41.85247909800182</v>
+        <v>41.8524790980465</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.53099811255663</v>
+        <v>40.53099811258608</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.83511710223036</v>
+        <v>48.83511710220421</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>53.42634259593945</v>
+        <v>53.42634259591227</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>19.49523698699295</v>
+        <v>19.49523698693315</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>41.68195716843331</v>
+        <v>41.68195716842501</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>49.95227760927878</v>
+        <v>49.95227760920864</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>16.03702561252067</v>
+        <v>16.03702561252362</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.49553951877033</v>
+        <v>42.49553951872792</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>50.42321128500009</v>
+        <v>50.42321128500907</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>19.90281356095977</v>
+        <v>19.90281356094704</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>37.56709202093657</v>
+        <v>37.56709202096397</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>43.9252154979954</v>
+        <v>43.92521549803553</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>31.10597633424107</v>
+        <v>31.1059763341608</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.08748402611536</v>
+        <v>46.08748402609865</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.85942828933389</v>
+        <v>51.85942828934992</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>50.54194014736026</v>
+        <v>50.54194014742689</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>58.8473497471025</v>
+        <v>58.84734974714149</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>63.43857671601347</v>
+        <v>63.43857671601882</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.50262356990754</v>
+        <v>29.50262356993301</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>51.69235053177454</v>
+        <v>51.6923505318</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>59.96299153478867</v>
+        <v>59.96299153481641</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>34.38546870867037</v>
+        <v>34.38546870871858</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.06330742119735</v>
+        <v>33.0633074211579</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.3673424544985</v>
+        <v>41.36734245451908</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>45.95867305736488</v>
+        <v>45.95867305734737</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>12.02817331627182</v>
+        <v>12.02817331624999</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.21430207518301</v>
+        <v>34.21430207515766</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>42.48485137513558</v>
+        <v>42.48485137509385</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>8.57120055961764</v>
+        <v>8.571200559596949</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>35.02916513543425</v>
+        <v>35.02916513541379</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.95696305020329</v>
+        <v>42.95696305019374</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>12.43608088876738</v>
+        <v>12.43608088873282</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>30.09986785221884</v>
+        <v>30.09986785223703</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.45814958264293</v>
+        <v>36.45814958270887</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>23.63854942858291</v>
+        <v>23.638549428592</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.61964904634988</v>
+        <v>38.61964904640718</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>44.39175497058204</v>
+        <v>44.39175497060114</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.07358649115383</v>
+        <v>43.07358649117589</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.37891212790237</v>
+        <v>51.37891212790248</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>55.97024421700917</v>
+        <v>55.97024421700928</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>22.03489689581034</v>
+        <v>22.03489689587491</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>44.22403245889325</v>
+        <v>44.22403245888142</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>52.49490233625784</v>
+        <v>52.49490233627603</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-6.300161257275132</v>
+        <v>-6.300161257334249</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>20.15234956443226</v>
+        <v>20.15234956447285</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.07577756457488</v>
+        <v>28.07577756457886</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-2.43624354113194</v>
+        <v>-2.436243541128984</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>15.22174852467106</v>
+        <v>15.22174852470323</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.57570129612566</v>
+        <v>21.57570129622889</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>8.759933774315076</v>
+        <v>8.759933774288474</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.73544232787231</v>
+        <v>23.73544232784252</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.50362312047901</v>
+        <v>29.50362312046559</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.18102656687063</v>
+        <v>28.1810265668704</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.48190286485953</v>
+        <v>36.48190286489728</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>41.07049749226746</v>
+        <v>41.07049749227247</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>7.14682898238414</v>
+        <v>7.146828982417336</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.32603087345104</v>
+        <v>29.32603087338373</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.59379798120824</v>
+        <v>37.59379798119642</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>-1.23434860496911</v>
+        <v>-1.234348604956832</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.2230409686581</v>
+        <v>25.22304096866685</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.15081378489265</v>
+        <v>33.15081378490322</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2.624365865221083</v>
+        <v>2.624365865190729</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>20.28673957494266</v>
+        <v>20.28673957497677</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.64496290785985</v>
+        <v>26.64496290785656</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>13.82573267359954</v>
+        <v>13.82573267360295</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.8056337221467</v>
+        <v>28.80563372212214</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2.477918888326716</v>
+        <v>2.477918888295452</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.93128961466721</v>
+        <v>28.93128961465027</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.85470241966618</v>
+        <v>36.85470241955636</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>6.343488656747812</v>
+        <v>6.343488656731783</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.00228284676598</v>
+        <v>24.00228284677735</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.35618965350375</v>
+        <v>30.35618965350159</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>17.54033778951862</v>
+        <v>17.54033778949929</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>32.51653830105101</v>
+        <v>32.5165383010476</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.28465270285994</v>
+        <v>38.28465270283016</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.96263264762024</v>
+        <v>36.96263264756726</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>45.26365117575119</v>
+        <v>45.26365117564842</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>49.85226258767318</v>
+        <v>49.85226258766727</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>15.92753721378131</v>
+        <v>15.92753721380382</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>38.10775740547729</v>
+        <v>38.10775740546978</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>46.37541148241428</v>
+        <v>46.37541148239904</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>7.546071863708907</v>
+        <v>7.546071863680485</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.00432144370336</v>
+        <v>34.00432144369415</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>41.93207916567189</v>
+        <v>41.93207916570816</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>11.40643855907695</v>
+        <v>11.40643855901022</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.06961448387802</v>
+        <v>29.06961448384653</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>35.42779196381389</v>
+        <v>35.42779196378842</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.60847738054361</v>
+        <v>22.60847738047551</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.589070477061</v>
+        <v>37.58907047705031</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>5.826281348713682</v>
+        <v>5.826281348723459</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.27991661681131</v>
+        <v>32.27991661688498</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>40.20336434253772</v>
+        <v>40.20336434254364</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>9.692763161118936</v>
+        <v>9.692763161101997</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>27.35186073354385</v>
+        <v>27.35186073356215</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>33.70580674523126</v>
+        <v>33.7058067452283</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>20.88968655891256</v>
+        <v>20.88968655883548</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>35.86616200897151</v>
+        <v>35.86616200891206</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>41.63430058703284</v>
+        <v>41.6343005869752</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>40.31230909719272</v>
+        <v>40.3123090971917</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.61335469367714</v>
+        <v>48.61335469364474</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.20203190825896</v>
+        <v>53.20203190823736</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.27694243167355</v>
+        <v>19.27694243167696</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>41.45757047290488</v>
+        <v>41.45757047282109</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>49.72524126835754</v>
+        <v>49.72524126834196</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>10.89519097072787</v>
+        <v>10.89519097064784</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.35370510889049</v>
+        <v>37.35370510893233</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>45.28149776572798</v>
+        <v>45.28149776580801</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.75646978987277</v>
+        <v>14.75646978981718</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.41994911728113</v>
+        <v>32.41994911724316</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.77816581752938</v>
+        <v>38.7781658175229</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.95858290522733</v>
+        <v>25.95858290523177</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.93945096032712</v>
+        <v>40.93945096030018</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-1.637429856919535</v>
+        <v>-1.637429856916352</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.81565609787129</v>
+        <v>24.81565609786128</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>32.73923003607979</v>
+        <v>32.73923003608468</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.228144580892607</v>
+        <v>2.2281445808967</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>19.88675066440635</v>
+        <v>19.88675066438202</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.24085500083016</v>
+        <v>26.24085500084221</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>13.42437388506415</v>
+        <v>13.424373885102</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.40044126721489</v>
+        <v>28.40044126719465</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.16874156994345</v>
+        <v>34.1687415699995</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>32.8460697131685</v>
+        <v>32.84606971315225</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.14703134195474</v>
+        <v>41.1470313419851</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.73581368454984</v>
+        <v>45.73581368458917</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>11.81133003162632</v>
+        <v>11.81133003165724</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>33.99136669899951</v>
+        <v>33.99136669897894</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.25926643250818</v>
+        <v>42.2592664324726</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>3.429495798034967</v>
+        <v>3.429495798067709</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.88746054939839</v>
+        <v>29.88746054936246</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>37.81537934302628</v>
+        <v>37.81537934299263</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>7.289867083795688</v>
+        <v>7.289867083828202</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.95285486345984</v>
+        <v>24.95285486343323</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>31.31122980057171</v>
+        <v>31.31122980056876</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>18.49128593239312</v>
+        <v>18.49128593235503</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.47174586239237</v>
+        <v>33.4717458624209</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>34.57767203628975</v>
+        <v>34.57767203627111</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.25533855899562</v>
+        <v>33.25533855904928</v>
       </c>
     </row>
     <row r="814">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>46.15123582863578</v>
+        <v>46.15123582866806</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>12.21842860146672</v>
+        <v>12.21842860147399</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.40600995183968</v>
+        <v>34.40600995189789</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>42.67681350151963</v>
+        <v>42.6768135015742</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>8.761432641017567</v>
+        <v>8.761432641006426</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>35.22131272044749</v>
+        <v>35.22131272043976</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>43.14931571851264</v>
+        <v>43.14931571850855</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.62442849134368</v>
+        <v>12.62442849134323</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>30.28958142316356</v>
+        <v>30.28958142315776</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.64789201464794</v>
+        <v>36.64789201465715</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>23.82840946387876</v>
+        <v>23.82840946388592</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.81069628513637</v>
+        <v>38.81069628514979</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>44.5828943862191</v>
+        <v>44.58289438620966</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>43.26455387484566</v>
+        <v>43.26455387491819</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>51.57056272793807</v>
+        <v>51.57056272792431</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>56.16174338270832</v>
+        <v>56.16174338270002</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.22408827035213</v>
+        <v>22.22408827035349</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>44.41467666172684</v>
+        <v>44.41467666178937</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>52.68580081078903</v>
+        <v>52.68580081081791</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.3610424951986</v>
+        <v>43.36104249522737</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>42.03928538758566</v>
+        <v>42.03928538758805</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.34414576067343</v>
+        <v>50.34414576065956</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>54.9353417001812</v>
+        <v>54.93534170019836</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.00147752367878</v>
+        <v>21.00147752372868</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>43.19007732499324</v>
+        <v>43.19007732490672</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>51.4607679285408</v>
+        <v>51.46076792850602</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>17.54341829987198</v>
+        <v>17.5434182998896</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>44.00415840107905</v>
+        <v>44.00415840104199</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>51.93214626851591</v>
+        <v>51.93214626850079</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>21.40806658429358</v>
+        <v>21.40806658427858</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.0740217491898</v>
+        <v>39.07402174918116</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>45.43228644781038</v>
+        <v>45.43228644783358</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>32.61271963804518</v>
+        <v>32.61271963797572</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>47.59569851578726</v>
+        <v>47.59569851573929</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>53.36783028669493</v>
+        <v>53.36783028666321</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>52.05006620660993</v>
+        <v>52.05006620660265</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>60.35621729152831</v>
+        <v>60.35621729158458</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>64.94741474842442</v>
+        <v>64.94741474841976</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.00870266350876</v>
+        <v>31.00870266342759</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>53.20030950642717</v>
+        <v>53.20030950636124</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>61.4713206870764</v>
+        <v>61.47132068702501</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>46.71144716768993</v>
+        <v>46.7114471676756</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.38971851475696</v>
+        <v>45.38971851478243</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.69460593179474</v>
+        <v>53.69460593180702</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>58.28586768507034</v>
+        <v>58.28586768512628</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.35163944470355</v>
+        <v>24.35163944480189</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.54064711812964</v>
+        <v>46.54064711820922</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>54.81135445726136</v>
+        <v>54.81135445733401</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>20.89350463809808</v>
+        <v>20.89350463813151</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>47.35450930604611</v>
+        <v>47.35450930610489</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>55.28253209026684</v>
+        <v>55.28253209031197</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.75906511224116</v>
+        <v>24.75906511224912</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.42532368671334</v>
+        <v>42.42532368674688</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>48.78362759091442</v>
+        <v>48.78362759094796</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.96379249649601</v>
+        <v>35.96379249651966</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>50.94704633958361</v>
+        <v>50.94704633959213</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>56.71920228403781</v>
+        <v>56.71920228405179</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>55.40146666666101</v>
+        <v>55.40146666667522</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>63.70764479066645</v>
+        <v>63.70764479062598</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>68.29890805311061</v>
+        <v>68.29890805316552</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.35983187660452</v>
+        <v>34.35983187666261</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.55184659223823</v>
+        <v>56.55184659220538</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>64.8228744972389</v>
+        <v>64.82287449722412</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.24390372003222</v>
+        <v>39.24390372006474</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>37.92149472618814</v>
+        <v>37.92149472620895</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>46.22629818005851</v>
+        <v>46.22629818007124</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>50.81766505225471</v>
+        <v>50.81766505221663</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.88404272654987</v>
+        <v>16.88404272659932</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>39.07245892656681</v>
+        <v>39.07245892656692</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>47.3433951414703</v>
+        <v>47.3433951414894</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>13.42714662700928</v>
+        <v>13.42714662701269</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>39.88760191813583</v>
+        <v>39.88760191811207</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>47.81575086384396</v>
+        <v>47.81575086384385</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.29179942619578</v>
+        <v>17.29179942612359</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>34.95756646031589</v>
+        <v>34.95756646032055</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>41.31602863263618</v>
+        <v>41.31602863268097</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.49583252357161</v>
+        <v>28.49583252357798</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>43.478678256791</v>
+        <v>43.47867825679816</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>49.25099587621673</v>
+        <v>49.25099587621798</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>47.93257988228061</v>
+        <v>47.93257988223513</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>56.23867403659006</v>
+        <v>56.23867403656004</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>60.83004242869231</v>
+        <v>60.83004242870595</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.89157212418468</v>
+        <v>26.89157212422743</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>49.08299539002337</v>
+        <v>49.0829953899397</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>57.35425218620992</v>
+        <v>57.35425218614262</v>
       </c>
     </row>
   </sheetData>
